--- a/data/img_labeling_1st_round/duplicates.xlsx
+++ b/data/img_labeling_1st_round/duplicates.xlsx
@@ -1445,7 +1445,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>195</v>
+        <v>71</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -1460,12 +1460,12 @@
         <v>56</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>364</v>
+        <v>72</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -1480,7 +1480,7 @@
         <v>56</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1605,7 +1605,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>416</v>
+        <v>167</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>444</v>
+        <v>247</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>18</v>
+        <v>293</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -1700,12 +1700,12 @@
         <v>258</v>
       </c>
       <c r="F60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -1720,7 +1720,7 @@
         <v>258</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1765,7 +1765,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>58</v>
+        <v>309</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -1780,12 +1780,12 @@
         <v>272</v>
       </c>
       <c r="F64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -1800,7 +1800,7 @@
         <v>272</v>
       </c>
       <c r="F65" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:6">
